--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCBDHoiVien.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCBDHoiVien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55532001-F747-478E-9AEA-D7EDEC49596C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FBEE10-4418-4FDA-B59C-342C008C4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C3213B-5A2A-47EB-894D-C318A534CBFA}"/>
   </bookViews>
@@ -25,48 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>HỘI NÔNG DÂN VIỆT NAM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>HỘI NÔNG DÂN TP. HỒ CHÍ MINH</t>
   </si>
   <si>
     <t>Độc lập- Tự do- hạnh phúc</t>
   </si>
   <si>
-    <t>THỐNG KÊ PHÁT TRIỂ HỘI VIÊN</t>
+    <t>Đơn Vị</t>
   </si>
   <si>
-    <t>Đơn vị</t>
+    <t>Số Hội Viên Hoạt Động</t>
   </si>
   <si>
-    <t>Số Hội viên hoạt động</t>
+    <t>Số Hội Viên Mới</t>
   </si>
   <si>
-    <t>Số Hội viên mới</t>
+    <t>Số Hội Viên Giảm</t>
   </si>
   <si>
-    <t>Số Hội viên giảm</t>
+    <t>Số Hội Viên Chờ Duyệt</t>
   </si>
   <si>
-    <t>Số Hội viên chờ duyệt</t>
-  </si>
-  <si>
-    <t>Mã</t>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -138,24 +126,46 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,38 +178,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,17 +534,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="30.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="240" max="240" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1794,94 +1810,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25">
+      <c r="A6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>

--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCBDHoiVien.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/BCBDHoiVien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FBEE10-4418-4FDA-B59C-342C008C4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C18B96-0FAD-4AD9-B95D-D25515285455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C3213B-5A2A-47EB-894D-C318A534CBFA}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,6 +183,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -201,21 +216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,17 +535,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="30.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="30.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="240" max="240" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1810,38 +1811,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="19.5">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="B4" s="11"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1850,19 +1851,19 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="20.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
